--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/OREGON_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/OREGON_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1005"/>
+  <dimension ref="A1:D999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C30">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C48">
@@ -1218,7 +1218,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C64">
@@ -1244,7 +1244,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C66">
@@ -1475,7 +1475,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C83">
@@ -1501,7 +1501,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1758,7 +1758,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C104">
@@ -1797,7 +1797,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C107">
@@ -1862,12 +1862,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C112">
@@ -1893,7 +1893,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C114">
@@ -2010,7 +2010,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C123">
@@ -2036,7 +2036,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C125">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C132">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C138">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C140">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C150">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C153">
@@ -2509,7 +2509,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C161">
@@ -2587,7 +2587,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C167">
@@ -2730,7 +2730,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C178">
@@ -2756,7 +2756,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C180">
@@ -2782,7 +2782,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C182">
@@ -2795,7 +2795,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C183">
@@ -2834,7 +2834,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C186">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C189">
@@ -2904,7 +2904,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C191">
@@ -2917,7 +2917,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C192">
@@ -2956,7 +2956,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C195">
@@ -2982,7 +2982,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C197">
@@ -2995,7 +2995,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C198">
@@ -3034,7 +3034,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C201">
@@ -3047,7 +3047,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C202">
@@ -3060,7 +3060,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C203">
@@ -3112,7 +3112,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C207">
@@ -3125,7 +3125,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C208">
@@ -3177,7 +3177,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C212">
@@ -3229,7 +3229,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C216">
@@ -3255,7 +3255,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C218">
@@ -3268,7 +3268,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C219">
@@ -3281,7 +3281,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C220">
@@ -3307,7 +3307,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C222">
@@ -3450,7 +3450,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C233">
@@ -3476,7 +3476,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C235">
@@ -3502,7 +3502,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C237">
@@ -3515,7 +3515,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C238">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C242">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C243">
@@ -3702,7 +3702,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C252">
@@ -3754,7 +3754,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C256">
@@ -3780,7 +3780,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C258">
@@ -3819,7 +3819,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C261">
@@ -3871,7 +3871,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C265">
@@ -3884,7 +3884,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C266">
@@ -3897,7 +3897,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C267">
@@ -3910,7 +3910,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C268">
@@ -3962,7 +3962,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C272">
@@ -3975,7 +3975,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C273">
@@ -3988,7 +3988,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C274">
@@ -4027,7 +4027,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C277">
@@ -4040,7 +4040,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C278">
@@ -4066,7 +4066,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C280">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C283">
@@ -4123,7 +4123,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C284">
@@ -4175,7 +4175,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C288">
@@ -4201,7 +4201,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C290">
@@ -4227,7 +4227,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C292">
@@ -4292,7 +4292,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C297">
@@ -4357,7 +4357,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C302">
@@ -4474,7 +4474,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C311">
@@ -4500,7 +4500,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C313">
@@ -4526,7 +4526,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C315">
@@ -4630,7 +4630,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C323">
@@ -4656,7 +4656,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C325">
@@ -4682,7 +4682,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C327">
@@ -4708,7 +4708,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C329">
@@ -4734,7 +4734,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C331">
@@ -4760,7 +4760,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C333">
@@ -4799,7 +4799,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C336">
@@ -4812,7 +4812,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C337">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C339">
@@ -4916,7 +4916,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C345">
@@ -4929,7 +4929,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C346">
@@ -4981,7 +4981,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C350">
@@ -4994,7 +4994,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C351">
@@ -5033,7 +5033,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C354">
@@ -5046,7 +5046,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C355">
@@ -5059,7 +5059,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C356">
@@ -5376,7 +5376,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C380">
@@ -5402,7 +5402,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C382">
@@ -6473,7 +6473,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C464">
@@ -6525,7 +6525,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C468">
@@ -6538,7 +6538,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C469">
@@ -6647,7 +6647,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C477">
@@ -6764,7 +6764,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C486">
@@ -6917,7 +6917,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C497">
@@ -6930,7 +6930,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C498">
@@ -6956,7 +6956,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C500">
@@ -6982,7 +6982,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C502">
@@ -6995,7 +6995,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C503">
@@ -7008,7 +7008,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C504">
@@ -7021,7 +7021,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C505">
@@ -7034,7 +7034,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C506">
@@ -7047,7 +7047,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C507">
@@ -7060,7 +7060,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C508">
@@ -7073,7 +7073,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C509">
@@ -7086,7 +7086,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C510">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C517">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C519">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C522">
@@ -7268,7 +7268,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C524">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C525">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C526">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C527">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C540">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C558">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C585">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C597">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C600">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C609">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C617">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C628">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C631">
@@ -9348,7 +9348,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C684">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C696">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C697">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C698">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C699">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C700">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C702">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C703">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C704">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C705">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C706">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C708">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C719">
@@ -9912,7 +9912,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C727">
@@ -9925,7 +9925,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C728">
@@ -10042,7 +10042,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C737">
@@ -10081,7 +10081,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C740">
@@ -10133,7 +10133,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C744">
@@ -10276,7 +10276,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C755">
@@ -10328,7 +10328,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C759">
@@ -10406,7 +10406,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C765">
@@ -10419,7 +10419,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C766">
@@ -10445,7 +10445,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C768">
@@ -10458,7 +10458,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C769">
@@ -10484,7 +10484,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C771">
@@ -10549,7 +10549,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C776">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C789">
@@ -10736,7 +10736,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C790">
@@ -10814,7 +10814,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C796">
@@ -10967,7 +10967,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C807">
@@ -11071,7 +11071,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C815">
@@ -11419,7 +11419,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C841">
@@ -11681,7 +11681,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C860">
@@ -11816,7 +11816,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C870">
@@ -11829,7 +11829,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C871">
@@ -11933,7 +11933,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C879">
@@ -12024,7 +12024,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C886">
@@ -12180,7 +12180,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C898">
@@ -12219,7 +12219,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C901">
@@ -12336,7 +12336,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C910">
@@ -12388,7 +12388,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C914">
@@ -12414,7 +12414,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C916">
@@ -12531,7 +12531,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C925">
@@ -12622,7 +12622,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C932">
@@ -12856,7 +12856,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C950">
@@ -13282,7 +13282,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C982">
@@ -13308,7 +13308,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C984">
@@ -13347,7 +13347,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C987">
@@ -13399,7 +13399,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C991">
@@ -13412,7 +13412,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C992">
@@ -13425,7 +13425,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C993">
@@ -13451,7 +13451,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C995">
@@ -13511,41 +13511,6 @@
       </c>
       <c r="D999">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
